--- a/uploads/qty_analysis.xlsx
+++ b/uploads/qty_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC988F-21CD-4234-A4F3-3268B0FC6CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6F4DE-177A-4B50-A969-8E89087354DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6">
-        <v>45383</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>163575</v>
+        <v>173900</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>113950</v>
+        <v>141125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>65675</v>
+        <v>69550</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="14">
-        <v>65675</v>
+        <v>69550</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="56">
-        <v>37950</v>
+        <v>54225</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="19">
-        <v>173900</v>
+        <v>191250</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="8">
-        <v>2645</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="10">
-        <v>698</v>
+        <v>1254.9000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="16">
-        <v>807</v>
+        <v>879.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="14">
-        <v>807</v>
+        <v>879.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1441,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="56">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1449,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="19">
-        <v>2456</v>
+        <v>2626.1000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1463,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1482,9 +1482,7 @@
       <c r="A27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="16">
-        <v>1</v>
-      </c>
+      <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
@@ -1503,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1523,10 +1521,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="73">
-        <v>176401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>193921.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="78" t="s">
         <v>20</v>
       </c>
@@ -1537,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="8">
-        <v>66483</v>
+        <v>70429.8</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
@@ -1559,7 +1557,7 @@
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29"/>
       <c r="B38" s="14">
-        <v>66483</v>
+        <v>70429.8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1573,7 +1571,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="10">
-        <v>64912</v>
+        <v>63524</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
@@ -1581,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="10">
-        <v>7124</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1595,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="10">
-        <v>72036</v>
+        <v>74674</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1603,7 +1601,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="10">
-        <v>1571</v>
+        <v>6905.8000000000029</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1611,7 +1609,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="31">
-        <v>2.3630100928056796E-2</v>
+        <v>9.8052244930413021E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1620,7 +1618,7 @@
       </c>
       <c r="B46" s="67"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="78" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1629,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="8">
-        <v>33018</v>
+        <v>43701.899999999994</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1639,7 +1637,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="10">
-        <v>64912</v>
+        <v>63524</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1647,7 +1645,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="10">
-        <v>7124</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1655,7 +1653,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="34">
-        <v>531.4</v>
+        <v>651.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -1663,7 +1661,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="17">
-        <v>105585.4</v>
+        <v>119027.4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1671,7 +1669,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="10">
-        <v>54883.5</v>
+        <v>62357.8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1679,7 +1677,7 @@
         <v>35</v>
       </c>
       <c r="B54" s="10">
-        <v>7000</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1693,7 +1691,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="56">
-        <v>61883.5</v>
+        <v>71407.8</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1701,10 +1699,10 @@
         <v>37</v>
       </c>
       <c r="B57" s="19">
-        <v>43701.899999999994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>47619.599999999991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="78" t="s">
         <v>38</v>
       </c>
@@ -1715,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="8">
-        <v>65057</v>
+        <v>63142.9</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1723,7 +1721,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="34">
-        <v>54883.5</v>
+        <v>62357.8</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -1731,7 +1729,7 @@
         <v>26</v>
       </c>
       <c r="B61" s="36">
-        <v>119940.5</v>
+        <v>125500.70000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1745,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="10">
-        <v>52244.7</v>
+        <v>61041.3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1753,7 +1751,7 @@
         <v>42</v>
       </c>
       <c r="B64" s="10">
-        <v>531.4</v>
+        <v>651.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1761,7 +1759,7 @@
         <v>43</v>
       </c>
       <c r="B65" s="10">
-        <v>53</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1769,7 +1767,7 @@
         <v>44</v>
       </c>
       <c r="B66" s="10">
-        <v>3968.5</v>
+        <v>6100.4</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1783,7 +1781,7 @@
         <v>26</v>
       </c>
       <c r="B68" s="36">
-        <v>56797.599999999999</v>
+        <v>67891.399999999994</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1799,7 +1797,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="38">
-        <v>63142.9</v>
+        <v>57609.300000000017</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1811,7 +1809,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="71">
-        <v>106844.79999999999</v>
+        <v>105228.90000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1827,7 @@
         <v>30</v>
       </c>
       <c r="B75" s="8">
-        <v>294635</v>
+        <v>286264.5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1837,7 +1835,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="10">
-        <v>52244.7</v>
+        <v>61041.3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1845,7 +1843,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="10">
-        <v>21755.9</v>
+        <v>13264.5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1859,7 +1857,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="10">
-        <v>82371.100000000006</v>
+        <v>96810.9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1885,10 +1883,10 @@
         <v>37</v>
       </c>
       <c r="B83" s="19">
-        <v>286264.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>263759.40000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="78" t="s">
         <v>55</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>30</v>
       </c>
       <c r="B85" s="42">
-        <v>848</v>
+        <v>1576.0999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1907,7 +1905,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="10">
-        <v>1097</v>
+        <v>298.3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1921,14 +1919,16 @@
         <v>58</v>
       </c>
       <c r="B88" s="10">
-        <v>14.1</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="10">
+        <v>1130.5</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
@@ -1940,16 +1940,14 @@
       <c r="A91" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B91" s="10">
-        <v>479</v>
-      </c>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B92" s="12">
-        <v>6800.9</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1957,7 +1955,7 @@
         <v>63</v>
       </c>
       <c r="B93" s="44">
-        <v>8391</v>
+        <v>7416.3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1970,14 +1968,16 @@
       <c r="A95" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="10"/>
+      <c r="B95" s="10">
+        <v>83.6</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B96" s="10">
-        <v>1089.3</v>
+        <v>298.3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1985,7 +1985,7 @@
         <v>67</v>
       </c>
       <c r="B97" s="10">
-        <v>20</v>
+        <v>949.4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1998,16 +1998,14 @@
       <c r="A99" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B99" s="10">
-        <v>479</v>
-      </c>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="21">
-        <v>6074.6</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2015,7 +2013,7 @@
         <v>71</v>
       </c>
       <c r="B101" s="44">
-        <v>7662.9000000000005</v>
+        <v>7936.3</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2023,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="B102" s="19">
-        <v>1576.0999999999995</v>
+        <v>1056.0999999999995</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2035,7 +2033,7 @@
         <v>72</v>
       </c>
       <c r="B104" s="73">
-        <v>394685.39999999997</v>
+        <v>370044.4</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2049,7 +2047,7 @@
         <v>30</v>
       </c>
       <c r="B106" s="64">
-        <v>0</v>
+        <v>2156.5</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2057,7 +2055,7 @@
         <v>73</v>
       </c>
       <c r="B107" s="65">
-        <v>5592.5</v>
+        <v>13104.400000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,7 +2075,7 @@
         <v>51</v>
       </c>
       <c r="B110" s="10">
-        <v>3436</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2085,7 +2083,7 @@
         <v>37</v>
       </c>
       <c r="B111" s="46">
-        <v>2156.5</v>
+        <v>11126.900000000001</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2099,7 +2097,7 @@
         <v>76</v>
       </c>
       <c r="B113" s="8">
-        <v>559824</v>
+        <v>571086.39999999991</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2107,7 +2105,7 @@
         <v>49</v>
       </c>
       <c r="B114" s="10">
-        <v>144794.9</v>
+        <v>163060.69999999998</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2115,7 +2113,7 @@
         <v>26</v>
       </c>
       <c r="B115" s="21">
-        <v>704618.9</v>
+        <v>734147.09999999986</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2123,7 +2121,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="58">
-        <v>571086.39999999991</v>
+        <v>563965.5</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2131,7 +2129,7 @@
         <v>34</v>
       </c>
       <c r="B117" s="60">
-        <v>133532.50000000012</v>
+        <v>170181.59999999986</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2139,7 +2137,7 @@
         <v>35</v>
       </c>
       <c r="B118" s="17">
-        <v>134984</v>
+        <v>168022.19999999998</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2147,7 +2145,7 @@
         <v>44</v>
       </c>
       <c r="B119" s="10">
-        <v>-1451.4999999998836</v>
+        <v>2159.3999999998778</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2155,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="B120" s="47">
-        <v>-1.0870012918202552E-2</v>
+        <v>1.2688798318971496E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2169,7 +2167,7 @@
         <v>80</v>
       </c>
       <c r="B122" s="49">
-        <v>166266</v>
+        <v>176401</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2177,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="B123" s="51">
-        <v>144794.9</v>
+        <v>163060.69999999998</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2185,7 +2183,7 @@
         <v>82</v>
       </c>
       <c r="B124" s="1">
-        <v>311060.90000000002</v>
+        <v>339461.69999999995</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2193,7 +2191,7 @@
         <v>83</v>
       </c>
       <c r="B125" s="51">
-        <v>176401</v>
+        <v>193921.1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2201,7 +2199,7 @@
         <v>84</v>
       </c>
       <c r="B126" s="4">
-        <v>134659.90000000002</v>
+        <v>145540.59999999995</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2209,7 +2207,7 @@
         <v>85</v>
       </c>
       <c r="B127" s="53">
-        <v>-1127.3999999999651</v>
+        <v>24640.999999999942</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -2217,7 +2215,7 @@
         <v>86</v>
       </c>
       <c r="B128" s="4">
-        <v>133532.50000000006</v>
+        <v>170181.59999999989</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2225,7 +2223,7 @@
         <v>87</v>
       </c>
       <c r="B129" s="51">
-        <v>134984</v>
+        <v>168022.19999999998</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2233,29 +2231,16 @@
         <v>44</v>
       </c>
       <c r="B130" s="49">
-        <v>-1451.4999999999418</v>
+        <v>2159.3999999999069</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="54">
-        <v>-1.0870012918202993E-2</v>
+        <v>1.2688798318971664E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A112:B112"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/qty_analysis.xlsx
+++ b/uploads/qty_analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishi\Desktop\Freelance_Projects\priya_fils\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6F4DE-177A-4B50-A969-8E89087354DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98132A9-ABC4-4F76-8411-F56E820D9351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6">
-        <v>45413</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>173900</v>
+        <v>204505</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>141125</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>69550</v>
+        <v>78820</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="14">
-        <v>69550</v>
+        <v>78820</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="56">
-        <v>54225</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="19">
-        <v>191250</v>
+        <v>196685</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="8">
-        <v>2456</v>
+        <v>2482.8000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="10">
-        <v>1254.9000000000001</v>
+        <v>1574.7</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="16">
-        <v>879.8</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="14">
-        <v>879.8</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1449,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="19">
-        <v>2626.1000000000004</v>
+        <v>2814.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1463,14 +1463,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="8">
-        <v>45</v>
+        <v>69.099999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
@@ -1482,7 +1484,9 @@
       <c r="A27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="16">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
@@ -1501,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="14">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1509,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="23">
-        <v>45</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1535,7 +1539,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="8">
-        <v>70429.8</v>
+        <v>79861.3</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
@@ -1557,7 +1561,7 @@
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29"/>
       <c r="B38" s="14">
-        <v>70429.8</v>
+        <v>79861.3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1571,7 +1575,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="10">
-        <v>63524</v>
+        <v>79408</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24.9" x14ac:dyDescent="0.3">
@@ -1579,7 +1583,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="10">
-        <v>11150</v>
+        <v>20175</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1593,7 +1597,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="10">
-        <v>74674</v>
+        <v>99583</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1601,7 +1605,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="10">
-        <v>6905.8000000000029</v>
+        <v>453.30000000000291</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1609,7 +1613,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="31">
-        <v>9.8052244930413021E-2</v>
+        <v>5.6760909226371585E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1629,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="8">
-        <v>43701.899999999994</v>
+        <v>42459.100000000049</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1637,7 +1641,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="10">
-        <v>63524</v>
+        <v>79408</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1645,7 +1649,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="10">
-        <v>11150</v>
+        <v>20175</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1653,7 +1657,7 @@
         <v>33</v>
       </c>
       <c r="B51" s="34">
-        <v>651.5</v>
+        <v>237.8</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -1661,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="17">
-        <v>119027.4</v>
+        <v>142279.90000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1669,7 +1673,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="10">
-        <v>62357.8</v>
+        <v>90142.8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="B54" s="10">
-        <v>9050</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1691,7 +1695,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="56">
-        <v>71407.8</v>
+        <v>102417.8</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1699,7 +1703,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="19">
-        <v>47619.599999999991</v>
+        <v>39862.10000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1713,7 +1717,7 @@
         <v>39</v>
       </c>
       <c r="B59" s="8">
-        <v>63142.9</v>
+        <v>78784.210000000079</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1721,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="34">
-        <v>62357.8</v>
+        <v>90142.8</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -1729,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="B61" s="36">
-        <v>125500.70000000001</v>
+        <v>168927.01000000007</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1743,7 +1747,7 @@
         <v>41</v>
       </c>
       <c r="B63" s="10">
-        <v>61041.3</v>
+        <v>83983.9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1751,7 +1755,7 @@
         <v>42</v>
       </c>
       <c r="B64" s="10">
-        <v>651.5</v>
+        <v>237.8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1759,7 +1763,7 @@
         <v>43</v>
       </c>
       <c r="B65" s="10">
-        <v>98.2</v>
+        <v>141.6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1767,7 +1771,7 @@
         <v>44</v>
       </c>
       <c r="B66" s="10">
-        <v>6100.4</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1781,7 +1785,7 @@
         <v>26</v>
       </c>
       <c r="B68" s="36">
-        <v>67891.399999999994</v>
+        <v>88800.3</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1797,7 +1801,7 @@
         <v>47</v>
       </c>
       <c r="B70" s="38">
-        <v>57609.300000000017</v>
+        <v>80126.710000000065</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1809,7 +1813,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="71">
-        <v>105228.90000000001</v>
+        <v>119988.81000000008</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1827,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="B75" s="8">
-        <v>286264.5</v>
+        <v>264904.59999999986</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1835,7 +1839,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="10">
-        <v>61041.3</v>
+        <v>83983.9</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1843,7 +1847,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="10">
-        <v>13264.5</v>
+        <v>23650.6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1857,7 +1861,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="10">
-        <v>96810.9</v>
+        <v>115906.1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1883,7 +1887,7 @@
         <v>37</v>
       </c>
       <c r="B83" s="19">
-        <v>263759.40000000002</v>
+        <v>256632.99999999985</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1897,7 +1901,7 @@
         <v>30</v>
       </c>
       <c r="B85" s="42">
-        <v>1576.0999999999995</v>
+        <v>943.31999999999789</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1905,7 +1909,7 @@
         <v>56</v>
       </c>
       <c r="B86" s="10">
-        <v>298.3</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1923,7 @@
         <v>58</v>
       </c>
       <c r="B88" s="10">
-        <v>69.5</v>
+        <v>1203.3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +1931,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="10">
-        <v>1130.5</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1947,7 +1951,7 @@
         <v>62</v>
       </c>
       <c r="B92" s="12">
-        <v>5918</v>
+        <v>7455.4</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1955,7 +1959,7 @@
         <v>63</v>
       </c>
       <c r="B93" s="44">
-        <v>7416.3</v>
+        <v>9780.7000000000007</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1969,7 +1973,7 @@
         <v>65</v>
       </c>
       <c r="B95" s="10">
-        <v>83.6</v>
+        <v>1203.3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1977,7 +1981,7 @@
         <v>66</v>
       </c>
       <c r="B96" s="10">
-        <v>298.3</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1985,7 +1989,7 @@
         <v>67</v>
       </c>
       <c r="B97" s="10">
-        <v>949.4</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2005,7 +2009,7 @@
         <v>70</v>
       </c>
       <c r="B100" s="21">
-        <v>6605</v>
+        <v>7455.4</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2013,7 +2017,7 @@
         <v>71</v>
       </c>
       <c r="B101" s="44">
-        <v>7936.3</v>
+        <v>9764.7000000000007</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2021,7 +2025,7 @@
         <v>37</v>
       </c>
       <c r="B102" s="19">
-        <v>1056.0999999999995</v>
+        <v>959.31999999999789</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2033,7 +2037,7 @@
         <v>72</v>
       </c>
       <c r="B104" s="73">
-        <v>370044.4</v>
+        <v>377581.12999999995</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2047,7 +2051,7 @@
         <v>30</v>
       </c>
       <c r="B106" s="64">
-        <v>2156.5</v>
+        <v>17901.489999999976</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,7 +2059,7 @@
         <v>73</v>
       </c>
       <c r="B107" s="65">
-        <v>13104.400000000001</v>
+        <v>5031.9000000000033</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2075,7 +2079,7 @@
         <v>51</v>
       </c>
       <c r="B110" s="10">
-        <v>4134</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2083,7 +2087,7 @@
         <v>37</v>
       </c>
       <c r="B111" s="46">
-        <v>11126.900000000001</v>
+        <v>17873.389999999978</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2097,7 +2101,7 @@
         <v>76</v>
       </c>
       <c r="B113" s="8">
-        <v>571086.39999999991</v>
+        <v>594148.13</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2105,7 +2109,7 @@
         <v>49</v>
       </c>
       <c r="B114" s="10">
-        <v>163060.69999999998</v>
+        <v>145013</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2113,7 +2117,7 @@
         <v>26</v>
       </c>
       <c r="B115" s="21">
-        <v>734147.09999999986</v>
+        <v>739161.13</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2121,7 +2125,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="58">
-        <v>563965.5</v>
+        <v>577153.42999999993</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2129,7 +2133,7 @@
         <v>34</v>
       </c>
       <c r="B117" s="60">
-        <v>170181.59999999986</v>
+        <v>162007.70000000007</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2137,7 +2141,7 @@
         <v>35</v>
       </c>
       <c r="B118" s="17">
-        <v>168022.19999999998</v>
+        <v>176945.80000000002</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2145,7 +2149,7 @@
         <v>44</v>
       </c>
       <c r="B119" s="10">
-        <v>2159.3999999998778</v>
+        <v>-14938.099999999948</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2153,7 +2157,7 @@
         <v>78</v>
       </c>
       <c r="B120" s="47">
-        <v>1.2688798318971496E-2</v>
+        <v>-9.2206111191010923E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2167,7 +2171,7 @@
         <v>80</v>
       </c>
       <c r="B122" s="49">
-        <v>176401</v>
+        <v>207056.9</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2175,7 +2179,7 @@
         <v>81</v>
       </c>
       <c r="B123" s="51">
-        <v>163060.69999999998</v>
+        <v>145013</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2183,7 +2187,7 @@
         <v>82</v>
       </c>
       <c r="B124" s="1">
-        <v>339461.69999999995</v>
+        <v>352069.9</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2191,7 +2195,7 @@
         <v>83</v>
       </c>
       <c r="B125" s="51">
-        <v>193921.1</v>
+        <v>199572.3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -2199,7 +2203,7 @@
         <v>84</v>
       </c>
       <c r="B126" s="4">
-        <v>145540.59999999995</v>
+        <v>152497.60000000003</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2207,7 +2211,7 @@
         <v>85</v>
       </c>
       <c r="B127" s="53">
-        <v>24640.999999999942</v>
+        <v>9510.1000000000349</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -2215,7 +2219,7 @@
         <v>86</v>
       </c>
       <c r="B128" s="4">
-        <v>170181.59999999989</v>
+        <v>162007.70000000007</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -2223,7 +2227,7 @@
         <v>87</v>
       </c>
       <c r="B129" s="51">
-        <v>168022.19999999998</v>
+        <v>176945.80000000002</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2231,13 +2235,13 @@
         <v>44</v>
       </c>
       <c r="B130" s="49">
-        <v>2159.3999999999069</v>
+        <v>-14938.099999999948</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="54">
-        <v>1.2688798318971664E-2</v>
+        <v>-9.2206111191010923E-2</v>
       </c>
     </row>
   </sheetData>
